--- a/HT-3/colegio-bac02.xlsx
+++ b/HT-3/colegio-bac02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74CD27-8028-A241-AA24-3EF4F00A889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85E288-5774-4547-99F5-336DB47D3AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="500" windowWidth="17080" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-02" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Se le tranmiten conocimientos al estudiante para que esta adquiera una determinada formación</t>
   </si>
   <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>S4</t>
   </si>
   <si>
-    <t>Boletín de notas</t>
-  </si>
-  <si>
     <t>Los padres o tutores del estudiante tienen acceso a un registro de calificaciones del estudiante</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>Padre / Tutor</t>
+  </si>
+  <si>
+    <t>Estudiante, Padre / Tutor</t>
+  </si>
+  <si>
+    <t>Seguimiento académico</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -579,10 +579,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -593,13 +593,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -610,30 +610,30 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">

--- a/HT-3/colegio-bac02.xlsx
+++ b/HT-3/colegio-bac02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85E288-5774-4547-99F5-336DB47D3AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE33A9B-3441-DA41-A7B4-122068B7EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
